--- a/controller/Sample_Files/Market basket measure.xlsx
+++ b/controller/Sample_Files/Market basket measure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasmalhotra/Desktop/ccrl/backend/controller/Sample_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasmalhotra/Desktop/Estimated files 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9ED133B-C8F2-1144-A0B9-FDD811D93ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD36838-569E-284A-B436-3ECA70142C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17140"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>Fredericton</t>
   </si>
   <si>
-    <t>Saint John</t>
+    <t>Saint john</t>
   </si>
   <si>
     <t>Moncton</t>
@@ -376,7 +376,7 @@
     <t>Prince Albert</t>
   </si>
   <si>
-    <t>Saskatoon</t>
+    <t>saskatoon</t>
   </si>
   <si>
     <t>Regina</t>
@@ -1381,9 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
